--- a/R/data/quiz231113.xlsx
+++ b/R/data/quiz231113.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B52977-E314-E644-B78A-F8B91CEA4C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985DE2AA-932E-9040-9F47-A19253836B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49260" yWindow="2140" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50440" yWindow="1680" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="427">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -965,6 +965,342 @@
   </si>
   <si>
     <t>최가연</t>
+  </si>
+  <si>
+    <t>bluejjun619@naver.com</t>
+  </si>
+  <si>
+    <t>윤영준</t>
+  </si>
+  <si>
+    <t>dlekals56@gmail.com</t>
+  </si>
+  <si>
+    <t>중국학과</t>
+  </si>
+  <si>
+    <t>이다민</t>
+  </si>
+  <si>
+    <t>dolphin0510@naver.com</t>
+  </si>
+  <si>
+    <t>김민수</t>
+  </si>
+  <si>
+    <t>gimchaemin97@gmail.com</t>
+  </si>
+  <si>
+    <t>김채민</t>
+  </si>
+  <si>
+    <t>hyj1141@naver.com</t>
+  </si>
+  <si>
+    <t>한예지</t>
+  </si>
+  <si>
+    <t>라. 4명</t>
+  </si>
+  <si>
+    <t>chh040817@naver.com</t>
+  </si>
+  <si>
+    <t>차현화</t>
+  </si>
+  <si>
+    <t>impact0219@naver.com</t>
+  </si>
+  <si>
+    <t>김서언</t>
+  </si>
+  <si>
+    <t>tpdls1323@naver.com</t>
+  </si>
+  <si>
+    <t>장세인</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>dlguswls0676@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>yjbyun0227@gmail.com</t>
+  </si>
+  <si>
+    <t>변예린</t>
+  </si>
+  <si>
+    <t>spungseon@gmail.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>roy041108@gmail.com</t>
+  </si>
+  <si>
+    <t>신영훈</t>
+  </si>
+  <si>
+    <t>ksrkatie@naver.com</t>
+  </si>
+  <si>
+    <t>권소린</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>xpo7777@naver.com</t>
+  </si>
+  <si>
+    <t>박찬주</t>
+  </si>
+  <si>
+    <t>679qmg@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>b1a46317@naver.com</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>fkdldjs0322@naver.com</t>
+  </si>
+  <si>
+    <t>이지희</t>
+  </si>
+  <si>
+    <t>gusdud0627@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠It학과</t>
+  </si>
+  <si>
+    <t>장현일</t>
+  </si>
+  <si>
+    <t>skagus1010@naver.com</t>
+  </si>
+  <si>
+    <t>김남현</t>
+  </si>
+  <si>
+    <t>skdud5438@naver.com</t>
+  </si>
+  <si>
+    <t>곽나영</t>
+  </si>
+  <si>
+    <t>memo0103@naver.com</t>
+  </si>
+  <si>
+    <t>안현서</t>
+  </si>
+  <si>
+    <t>blleuey@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>yjeong2687@naver.com</t>
+  </si>
+  <si>
+    <t>유정현</t>
+  </si>
+  <si>
+    <t>20232565@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>미디어스쿨</t>
+  </si>
+  <si>
+    <t>이지안</t>
+  </si>
+  <si>
+    <t>loul0412@naver.com</t>
+  </si>
+  <si>
+    <t>김가령</t>
+  </si>
+  <si>
+    <t>pjw4063@naver.com</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>bravemw2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크전공</t>
+  </si>
+  <si>
+    <t>태민우</t>
+  </si>
+  <si>
+    <t>bee0831@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠</t>
+  </si>
+  <si>
+    <t>이규빈</t>
+  </si>
+  <si>
+    <t>huijeongj019@gmail.com</t>
+  </si>
+  <si>
+    <t>조희정</t>
+  </si>
+  <si>
+    <t>bae001909@naver.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>selapina0312@naver.com</t>
+  </si>
+  <si>
+    <t>홍민서</t>
+  </si>
+  <si>
+    <t>se0870@naver.com</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>theyubin@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>chlgpals2507@naver.com</t>
+  </si>
+  <si>
+    <t>최혜민</t>
+  </si>
+  <si>
+    <t>lsk8424@naver.com</t>
+  </si>
+  <si>
+    <t>이상기</t>
+  </si>
+  <si>
+    <t>catboom5329@gmail.com</t>
+  </si>
+  <si>
+    <t>박주현</t>
+  </si>
+  <si>
+    <t>eunjae7113@naver.com</t>
+  </si>
+  <si>
+    <t>전은재</t>
+  </si>
+  <si>
+    <t>ekgus0916@naver.com</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>rkdgodbs7148@naver.com</t>
+  </si>
+  <si>
+    <t>강해윤</t>
+  </si>
+  <si>
+    <t>lovechan2004@naver.com</t>
+  </si>
+  <si>
+    <t>황예찬</t>
+  </si>
+  <si>
+    <t>yowon0302@gmail.com</t>
+  </si>
+  <si>
+    <t>러시아</t>
+  </si>
+  <si>
+    <t>최요원</t>
+  </si>
+  <si>
+    <t>k01050531595@gmail.com</t>
+  </si>
+  <si>
+    <t>권승현</t>
+  </si>
+  <si>
+    <t>tnwls03270327@gmail.com</t>
+  </si>
+  <si>
+    <t>권수진</t>
+  </si>
+  <si>
+    <t>tvkim0122@gmail.com</t>
+  </si>
+  <si>
+    <t>김태빈</t>
+  </si>
+  <si>
+    <t>justin0304299@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생명과학과 </t>
+  </si>
+  <si>
+    <t>박기현</t>
+  </si>
+  <si>
+    <t>ga89193234@gmail.com</t>
+  </si>
+  <si>
+    <t>김경아</t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>5614bok@naver.com</t>
+  </si>
+  <si>
+    <t>안세진</t>
   </si>
 </sst>
 </file>
@@ -1238,11 +1574,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:Y160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9245,6 +9581,3854 @@
         <v>60</v>
       </c>
     </row>
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2">
+        <v>45245.54057967593</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" s="1">
+        <v>20226758</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
+        <v>45245.559160312499</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D110" s="1">
+        <v>20211526</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W110" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="2">
+        <v>45245.559735625</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" s="1">
+        <v>20235123</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W111" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y111" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2">
+        <v>45245.584390497686</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D112" s="1">
+        <v>20236231</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W112" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X112" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2">
+        <v>45245.596129803242</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" s="1">
+        <v>20217095</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y113" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2">
+        <v>45245.620730092589</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="1">
+        <v>20233962</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T114" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y114" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2">
+        <v>45245.630368738421</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D115" s="1">
+        <v>20236218</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T115" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W115" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y115" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2">
+        <v>45245.63614771991</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="1">
+        <v>20233245</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X116" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2">
+        <v>45245.645698854161</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D117" s="1">
+        <v>20222968</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y117" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2">
+        <v>45245.650517268514</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D118" s="1">
+        <v>20171078</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T118" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W118" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y118" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2">
+        <v>45245.659200972223</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119" s="1">
+        <v>20236732</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T119" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W119" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X119" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
+        <v>45245.68439386574</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D120" s="1">
+        <v>20236219</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T120" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W120" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X120" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2">
+        <v>45245.694807638887</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D121" s="1">
+        <v>20235199</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S121" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T121" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X121" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
+        <v>45245.719759282409</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D122" s="1">
+        <v>20231004</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W122" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y122" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
+        <v>45245.736767604161</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D123" s="1">
+        <v>20231203</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T123" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X123" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
+        <v>45245.742832442134</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D124" s="1">
+        <v>20212623</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T124" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V124" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X124" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
+        <v>45245.745739641206</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" s="1">
+        <v>20222750</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T125" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W125" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X125" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2">
+        <v>45245.802791967595</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" s="1">
+        <v>20203020</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T126" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W126" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X126" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="2">
+        <v>45245.809987349538</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D127" s="1">
+        <v>20231075</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S127" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V127" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y127" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2">
+        <v>45245.816800208333</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D128" s="1">
+        <v>20205246</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W128" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y128" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2">
+        <v>45245.817083425922</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D129" s="1">
+        <v>20203501</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W129" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y129" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2">
+        <v>45245.828797465278</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" s="1">
+        <v>20192817</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W130" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X130" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2">
+        <v>45245.831442025461</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D131" s="1">
+        <v>20232803</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W131" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X131" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
+        <v>45245.884065497681</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="1">
+        <v>20236142</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T132" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W132" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y132" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="2">
+        <v>45245.885767002314</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D133" s="1">
+        <v>20203235</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T133" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U133" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X133" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="2">
+        <v>45245.919470925925</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" s="1">
+        <v>20221525</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T134" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U134" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V134" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W134" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X134" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2">
+        <v>45245.926041898143</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D135" s="1">
+        <v>20232565</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T135" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W135" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y135" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
+        <v>45245.926505636569</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" s="1">
+        <v>20231201</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W136" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y136" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2">
+        <v>45245.928240925925</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D137" s="1">
+        <v>20233410</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T137" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W137" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X137" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2">
+        <v>45245.932217499998</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D138" s="1">
+        <v>20203257</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T138" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W138" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X138" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2">
+        <v>45245.947288217591</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D139" s="1">
+        <v>20202554</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T139" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U139" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X139" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2">
+        <v>45245.951391342591</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D140" s="1">
+        <v>20233960</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W140" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y140" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2">
+        <v>45245.986397928238</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D141" s="1">
+        <v>20193712</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T141" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U141" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W141" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X141" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="2">
+        <v>45246.003544120365</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" s="1">
+        <v>20233968</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T142" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W142" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y142" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2">
+        <v>45246.005867071755</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D143" s="1">
+        <v>20232563</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S143" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T143" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U143" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W143" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X143" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2">
+        <v>45246.023368449074</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D144" s="1">
+        <v>20236760</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T144" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V144" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W144" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X144" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2">
+        <v>45246.100296770834</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D145" s="1">
+        <v>20181735</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T145" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U145" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V145" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W145" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y145" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="2">
+        <v>45246.446061122682</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D146" s="1">
+        <v>20172428</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T146" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W146" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y146" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2">
+        <v>45246.50033487269</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D147" s="1">
+        <v>20234121</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T147" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W147" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y147" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="2">
+        <v>45246.51607972222</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20236772</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T148" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U148" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W148" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y148" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2">
+        <v>45246.51726364583</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D149" s="1">
+        <v>20217125</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W149" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X149" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>45246.555768032413</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D150" s="1">
+        <v>20202513</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T150" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W150" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y150" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
+        <v>45246.576944733795</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D151" s="1">
+        <v>20181702</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T151" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U151" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W151" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X151" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2">
+        <v>45246.607900046292</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D152" s="1">
+        <v>20236646</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W152" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y152" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2">
+        <v>45246.668070925924</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D153" s="1">
+        <v>20221730</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V153" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W153" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y153" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2">
+        <v>45246.670115775458</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D154" s="1">
+        <v>20232102</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T154" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V154" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W154" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X154" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2">
+        <v>45246.673212256945</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20192703</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W155" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y155" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="2">
+        <v>45246.681700289351</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D156" s="1">
+        <v>20203314</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X156" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2">
+        <v>45246.742461400463</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D157" s="1">
+        <v>20213515</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W157" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y157" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2">
+        <v>45246.757763634261</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D158" s="1">
+        <v>20231007</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W158" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y158" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2">
+        <v>45246.758503321762</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D159" s="1">
+        <v>20195157</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T159" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U159" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V159" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W159" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y159" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="2">
+        <v>45246.83033459491</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D160" s="1">
+        <v>20233525</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V160" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W160" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231113.xlsx
+++ b/R/data/quiz231113.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985DE2AA-932E-9040-9F47-A19253836B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B386C13-9DA2-0B45-B786-D10CA6BDCADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50440" yWindow="1680" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="445">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1301,6 +1301,60 @@
   </si>
   <si>
     <t>안세진</t>
+  </si>
+  <si>
+    <t>dldmlcks56@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무학과</t>
+  </si>
+  <si>
+    <t>이의찬</t>
+  </si>
+  <si>
+    <t>dbswlals0326@naver.com</t>
+  </si>
+  <si>
+    <t>윤지민</t>
+  </si>
+  <si>
+    <t>kirokmom@naver.com</t>
+  </si>
+  <si>
+    <t>김병관</t>
+  </si>
+  <si>
+    <t>sally4417776@naver.com</t>
+  </si>
+  <si>
+    <t>안세연</t>
+  </si>
+  <si>
+    <t>0319dy@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>heejae7942@naver.com</t>
+  </si>
+  <si>
+    <t>최희재</t>
+  </si>
+  <si>
+    <t>whgdktlfgdj2@naver.com</t>
+  </si>
+  <si>
+    <t>변용찬</t>
   </si>
 </sst>
 </file>
@@ -1574,11 +1628,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y160"/>
+  <dimension ref="A1:Y168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
+      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13429,6 +13483,598 @@
         <v>60</v>
       </c>
     </row>
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="2">
+        <v>45246.86790513889</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D161" s="1">
+        <v>20173144</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="2">
+        <v>45246.923574594912</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D162" s="1">
+        <v>20235219</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W162" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y162" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2">
+        <v>45246.93639393519</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D163" s="1">
+        <v>20192709</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y163" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="2">
+        <v>45246.937313240742</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D164" s="1">
+        <v>20236257</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T164" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X164" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="2">
+        <v>45246.941265405098</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D165" s="1">
+        <v>20225116</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V165" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W165" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y165" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="2">
+        <v>45246.949477256945</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D166" s="1">
+        <v>20183831</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U166" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y166" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2">
+        <v>45247.021386550929</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D167" s="1">
+        <v>20236301</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W167" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="2">
+        <v>45247.066196006941</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D168" s="1">
+        <v>20181051</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V168" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W168" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X168" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231113.xlsx
+++ b/R/data/quiz231113.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B386C13-9DA2-0B45-B786-D10CA6BDCADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D8C208-0203-C641-847F-9B39E63CBFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50440" yWindow="1680" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50440" yWindow="1660" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="465">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1355,6 +1355,66 @@
   </si>
   <si>
     <t>변용찬</t>
+  </si>
+  <si>
+    <t>k00e0096@naver.com</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>wjdgus2251@naver.com</t>
+  </si>
+  <si>
+    <t>이정현</t>
+  </si>
+  <si>
+    <t>chominseo1029@naver.com</t>
+  </si>
+  <si>
+    <t>조민서</t>
+  </si>
+  <si>
+    <t>yeshin05@naver.com</t>
+  </si>
+  <si>
+    <t>최예원</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
+  </si>
+  <si>
+    <t>djcjfakstp@gmail.com</t>
+  </si>
+  <si>
+    <t>융합인재학부</t>
+  </si>
+  <si>
+    <t>어철</t>
+  </si>
+  <si>
+    <t>smart0403p@naver.com</t>
+  </si>
+  <si>
+    <t>dldusgh0908@gmail.com</t>
+  </si>
+  <si>
+    <t>이연호</t>
+  </si>
+  <si>
+    <t>ggjtt4051@gmail.com</t>
+  </si>
+  <si>
+    <t>최아린</t>
+  </si>
+  <si>
+    <t>moyapple2431@naver.com</t>
+  </si>
+  <si>
+    <t>조윤서</t>
   </si>
 </sst>
 </file>
@@ -1628,11 +1688,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y168"/>
+  <dimension ref="A1:Y178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14075,6 +14135,746 @@
         <v>60</v>
       </c>
     </row>
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2">
+        <v>45247.427167974536</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D169" s="1">
+        <v>20202355</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W169" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y169" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2">
+        <v>45247.500802326387</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D170" s="1">
+        <v>20217149</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W170" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2">
+        <v>45247.508776875002</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20233959</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W171" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="2">
+        <v>45247.531805416671</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D172" s="1">
+        <v>20236639</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2">
+        <v>45247.627118912038</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20202741</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V173" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y173" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2">
+        <v>45247.635495902781</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D174" s="1">
+        <v>20196515</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W174" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X174" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2">
+        <v>45247.637182685183</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D175" s="1">
+        <v>20232719</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T175" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W175" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X175" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2">
+        <v>45247.647729039352</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D176" s="1">
+        <v>20232738</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W176" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="2">
+        <v>45247.673325370371</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D177" s="1">
+        <v>20233051</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T177" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U177" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W177" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X177" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="2">
+        <v>45247.677202175924</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D178" s="1">
+        <v>20221729</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T178" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U178" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V178" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W178" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X178" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231113.xlsx
+++ b/R/data/quiz231113.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D8C208-0203-C641-847F-9B39E63CBFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBE476-5E8E-A74F-B4A3-F0370797BA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50440" yWindow="1660" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="478">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1415,6 +1415,45 @@
   </si>
   <si>
     <t>조윤서</t>
+  </si>
+  <si>
+    <t>lucky021217@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>rcn214@naver.com</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>김제승</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>ohj09170@naver.com</t>
+  </si>
+  <si>
+    <t>오현진</t>
+  </si>
+  <si>
+    <t>mimi041221@naver.com</t>
+  </si>
+  <si>
+    <t>김미정</t>
+  </si>
+  <si>
+    <t>digiphk12@naver.com</t>
+  </si>
+  <si>
+    <t>박현규</t>
   </si>
 </sst>
 </file>
@@ -1688,11 +1727,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y178"/>
+  <dimension ref="A1:Y184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
+      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14727,7 +14766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>45247.673325370371</v>
       </c>
@@ -14801,7 +14840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>45247.677202175924</v>
       </c>
@@ -14873,6 +14912,450 @@
       </c>
       <c r="X178" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2">
+        <v>45247.679130613426</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D179" s="1">
+        <v>20212621</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T179" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U179" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V179" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W179" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X179" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2">
+        <v>45247.712357245371</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D180" s="1">
+        <v>20232932</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T180" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V180" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W180" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y180" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="2">
+        <v>45247.746045763888</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D181" s="1">
+        <v>20232706</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T181" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U181" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V181" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W181" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y181" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="2">
+        <v>45247.761936527779</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D182" s="1">
+        <v>20232555</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T182" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U182" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V182" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W182" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X182" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="2">
+        <v>45247.781481875005</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D183" s="1">
+        <v>20231503</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T183" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V183" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W183" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X183" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="2">
+        <v>45247.813939756947</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D184" s="1">
+        <v>20162617</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T184" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U184" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V184" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W184" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X184" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz231113.xlsx
+++ b/R/data/quiz231113.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBE476-5E8E-A74F-B4A3-F0370797BA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEC983E-FAB3-8148-8DBD-8730F66B6D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50440" yWindow="1660" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="502">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1454,6 +1454,78 @@
   </si>
   <si>
     <t>박현규</t>
+  </si>
+  <si>
+    <t>lceda1011@naver.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>ssabaljukinsaekki@gmail.com</t>
+  </si>
+  <si>
+    <t>정민석</t>
+  </si>
+  <si>
+    <t>hamy7@naver.com</t>
+  </si>
+  <si>
+    <t>이욱항</t>
+  </si>
+  <si>
+    <t>20225169@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>배승유</t>
+  </si>
+  <si>
+    <t>ehgus4597@gmail.com</t>
+  </si>
+  <si>
+    <t>김도현</t>
+  </si>
+  <si>
+    <t>inhwagil40@gmail.com</t>
+  </si>
+  <si>
+    <t>길인화</t>
+  </si>
+  <si>
+    <t>eunku7188@naver.com</t>
+  </si>
+  <si>
+    <t>곽은규</t>
+  </si>
+  <si>
+    <t>leesave9@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>이혁재</t>
+  </si>
+  <si>
+    <t>tlswnals04@naver.com</t>
+  </si>
+  <si>
+    <t>신주민</t>
+  </si>
+  <si>
+    <t>sungmin6674@gmail.com</t>
+  </si>
+  <si>
+    <t>방성민</t>
+  </si>
+  <si>
+    <t>0310cherry@naver.com</t>
+  </si>
+  <si>
+    <t>이재원</t>
   </si>
 </sst>
 </file>
@@ -1727,11 +1799,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y184"/>
+  <dimension ref="A1:Y195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15358,6 +15430,820 @@
         <v>60</v>
       </c>
     </row>
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="2">
+        <v>45247.865804641202</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D185" s="1">
+        <v>20233955</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T185" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U185" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V185" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W185" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X185" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="2">
+        <v>45247.894064039356</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D186" s="1">
+        <v>20235252</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T186" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U186" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V186" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W186" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X186" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="2">
+        <v>45247.894657303244</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D187" s="1">
+        <v>20233834</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T187" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U187" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V187" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W187" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X187" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="2">
+        <v>45247.913530289356</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D188" s="1">
+        <v>20225169</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T188" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U188" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V188" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W188" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y188" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>45247.915214849534</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D189" s="1">
+        <v>20223208</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T189" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U189" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V189" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W189" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y189" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="2">
+        <v>45247.93490472222</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D190" s="1">
+        <v>20236210</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T190" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U190" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V190" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W190" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X190" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="2">
+        <v>45247.958317476849</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D191" s="1">
+        <v>20212601</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T191" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U191" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V191" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W191" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X191" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="2">
+        <v>45247.964424467587</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D192" s="1">
+        <v>20181088</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T192" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U192" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V192" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W192" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X192" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="2">
+        <v>45247.989009270837</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D193" s="1">
+        <v>20236740</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S193" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T193" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U193" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V193" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W193" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X193" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2">
+        <v>45248.008988692134</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D194" s="1">
+        <v>20232963</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R194" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S194" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T194" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U194" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V194" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W194" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X194" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="2">
+        <v>45248.012351365745</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D195" s="1">
+        <v>20191530</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q195" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R195" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S195" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T195" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V195" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W195" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X195" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz231113.xlsx
+++ b/R/data/quiz231113.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A85B3DE-4840-BA45-BF03-092277C61896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EAB8A9-AE6F-CD47-B83B-B81FBA421C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50440" yWindow="1640" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7439" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7483" uniqueCount="803">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2414,6 +2414,21 @@
   </si>
   <si>
     <t>김민정</t>
+  </si>
+  <si>
+    <t>kgy5988@naver.com</t>
+  </si>
+  <si>
+    <t>김진범</t>
+  </si>
+  <si>
+    <t>total7146@gmail.com</t>
+  </si>
+  <si>
+    <t>환경생명공학</t>
+  </si>
+  <si>
+    <t>안정하</t>
   </si>
 </sst>
 </file>
@@ -2687,11 +2702,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y338"/>
+  <dimension ref="A1:Y340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H355" sqref="H355"/>
+      <selection pane="bottomLeft" activeCell="E351" sqref="E351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27714,6 +27729,154 @@
         <v>60</v>
       </c>
     </row>
+    <row r="339" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="2">
+        <v>45250.046718078709</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D339" s="1">
+        <v>20203214</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K339" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L339" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M339" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N339" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O339" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P339" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q339" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R339" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S339" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T339" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U339" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V339" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W339" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y339" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="340" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="2">
+        <v>45250.144357314814</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D340" s="1">
+        <v>20223722</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K340" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M340" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N340" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O340" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P340" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q340" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R340" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S340" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T340" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U340" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V340" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W340" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y340" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y338">
     <sortCondition ref="A1:A338"/>

--- a/R/data/quiz231113.xlsx
+++ b/R/data/quiz231113.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EAB8A9-AE6F-CD47-B83B-B81FBA421C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C40FE06-39A0-904A-BD8B-450DFD616CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50440" yWindow="1640" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7483" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7681" uniqueCount="822">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2429,6 +2429,63 @@
   </si>
   <si>
     <t>안정하</t>
+  </si>
+  <si>
+    <t>tyu7626@naver.com</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>kimtaejin3882@gmail.com</t>
+  </si>
+  <si>
+    <t>김태진</t>
+  </si>
+  <si>
+    <t>abcdefg76500@naver.com</t>
+  </si>
+  <si>
+    <t>노희망</t>
+  </si>
+  <si>
+    <t>seonyeong0429@gmail.com</t>
+  </si>
+  <si>
+    <t>노선영</t>
+  </si>
+  <si>
+    <t>jinwoo3817@naver.com</t>
+  </si>
+  <si>
+    <t>원진우</t>
+  </si>
+  <si>
+    <t>20162715@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김현욱</t>
+  </si>
+  <si>
+    <t>guseons__@naver.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>구선화</t>
+  </si>
+  <si>
+    <t>yewonshine@naver.com</t>
+  </si>
+  <si>
+    <t>허예원</t>
+  </si>
+  <si>
+    <t>birr040511@naver.com</t>
+  </si>
+  <si>
+    <t>오준서</t>
   </si>
 </sst>
 </file>
@@ -2702,11 +2759,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y340"/>
+  <dimension ref="A1:Y349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E351" sqref="E351"/>
+      <selection pane="bottomLeft" activeCell="C354" sqref="C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27877,6 +27934,672 @@
         <v>60</v>
       </c>
     </row>
+    <row r="341" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="2">
+        <v>45250.439041979167</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D341" s="1">
+        <v>20232636</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L341" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M341" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N341" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O341" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P341" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q341" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R341" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S341" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T341" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U341" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V341" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W341" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y341" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="342" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="2">
+        <v>45250.469906018523</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D342" s="1">
+        <v>20232939</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L342" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M342" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N342" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O342" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P342" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q342" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R342" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S342" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T342" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U342" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V342" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W342" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y342" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="343" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="2">
+        <v>45250.540281527778</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D343" s="1">
+        <v>20232946</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K343" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L343" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M343" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N343" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O343" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P343" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q343" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R343" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S343" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T343" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U343" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V343" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W343" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X343" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="344" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="2">
+        <v>45250.549174282409</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D344" s="1">
+        <v>20236235</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L344" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M344" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N344" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O344" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P344" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q344" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R344" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S344" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T344" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U344" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V344" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W344" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X344" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="345" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="2">
+        <v>45250.562382696764</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D345" s="1">
+        <v>20222552</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L345" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M345" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N345" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O345" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P345" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q345" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R345" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S345" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T345" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U345" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V345" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W345" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y345" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="346" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="2">
+        <v>45250.588878402777</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D346" s="1">
+        <v>20162715</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K346" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L346" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M346" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N346" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O346" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P346" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q346" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R346" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S346" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T346" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U346" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V346" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W346" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y346" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="347" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="2">
+        <v>45250.624313449072</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D347" s="1">
+        <v>20203301</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L347" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M347" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N347" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O347" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P347" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q347" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R347" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S347" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T347" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U347" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V347" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W347" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y347" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="348" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="2">
+        <v>45250.626614872686</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D348" s="1">
+        <v>20217122</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L348" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M348" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N348" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O348" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P348" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q348" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R348" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S348" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T348" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U348" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V348" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W348" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y348" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="349" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="2">
+        <v>45250.627831458332</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D349" s="1">
+        <v>20232832</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K349" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L349" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N349" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O349" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P349" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q349" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R349" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S349" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T349" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U349" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V349" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W349" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y349" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y338">
     <sortCondition ref="A1:A338"/>

--- a/R/data/quiz231113.xlsx
+++ b/R/data/quiz231113.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C40FE06-39A0-904A-BD8B-450DFD616CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4047B3-3073-D546-B451-E02A3F027C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50440" yWindow="1640" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7681" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8847" uniqueCount="932">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2486,6 +2486,336 @@
   </si>
   <si>
     <t>오준서</t>
+  </si>
+  <si>
+    <t>meldek98@gmail.com</t>
+  </si>
+  <si>
+    <t>강비성</t>
+  </si>
+  <si>
+    <t>rjfrh11@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 전공</t>
+  </si>
+  <si>
+    <t>서무혁</t>
+  </si>
+  <si>
+    <t>minjoo902@naver.com</t>
+  </si>
+  <si>
+    <t>김민주</t>
+  </si>
+  <si>
+    <t>wjdgusgh1021@naver.com</t>
+  </si>
+  <si>
+    <t>정현호</t>
+  </si>
+  <si>
+    <t>tkdgjs9768@naver.com</t>
+  </si>
+  <si>
+    <t>임상헌</t>
+  </si>
+  <si>
+    <t>dnjsgmlwjd1020@naver.com</t>
+  </si>
+  <si>
+    <t>원희정</t>
+  </si>
+  <si>
+    <t>athboy3@gmail.com</t>
+  </si>
+  <si>
+    <t>안태현</t>
+  </si>
+  <si>
+    <t>minky1501@gmail.com</t>
+  </si>
+  <si>
+    <t>최민경</t>
+  </si>
+  <si>
+    <t>yunbi0405@naver.com</t>
+  </si>
+  <si>
+    <t>최윤비</t>
+  </si>
+  <si>
+    <t>kq872@naver.com</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>jihye199530@gmail.com</t>
+  </si>
+  <si>
+    <t>엄지혜</t>
+  </si>
+  <si>
+    <t>dkdud4750@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">심리학과 </t>
+  </si>
+  <si>
+    <t>양아영</t>
+  </si>
+  <si>
+    <t>ai20233638@gmail.com</t>
+  </si>
+  <si>
+    <t>장예은</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>030223cho@naver.com</t>
+  </si>
+  <si>
+    <t>조성진</t>
+  </si>
+  <si>
+    <t>jeongsuyeon749@naver.com</t>
+  </si>
+  <si>
+    <t>정수연</t>
+  </si>
+  <si>
+    <t>hanhj0223@gmail.com</t>
+  </si>
+  <si>
+    <t>한형준</t>
+  </si>
+  <si>
+    <t>jinhwajeong8@gmail.com</t>
+  </si>
+  <si>
+    <t>정진환</t>
+  </si>
+  <si>
+    <t>uy7249@gmail.com</t>
+  </si>
+  <si>
+    <t>이다인</t>
+  </si>
+  <si>
+    <t>phanbe1@naver.com</t>
+  </si>
+  <si>
+    <t>박한비</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>urica45642@gmail.com</t>
+  </si>
+  <si>
+    <t>유시현</t>
+  </si>
+  <si>
+    <t>20217134@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>장효경</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@gmail.com</t>
+  </si>
+  <si>
+    <t>김도훈</t>
+  </si>
+  <si>
+    <t>kimeunjin829@naver.com</t>
+  </si>
+  <si>
+    <t>김은진</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>rla00604@gmail.com</t>
+  </si>
+  <si>
+    <t>김수연</t>
+  </si>
+  <si>
+    <t>sujh7021@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 광고홍보학과</t>
+  </si>
+  <si>
+    <t>이재현</t>
+  </si>
+  <si>
+    <t>gata0523@gmail.com</t>
+  </si>
+  <si>
+    <t>서형록</t>
+  </si>
+  <si>
+    <t>0000fire74@gmail.com</t>
+  </si>
+  <si>
+    <t>cdm990512@gmail.com</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>back8028@naver.com</t>
+  </si>
+  <si>
+    <t>백재영</t>
+  </si>
+  <si>
+    <t>siyun8477@gmail.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>rlaalswl9362@naver.com</t>
+  </si>
+  <si>
+    <t>ai로봇융합전공</t>
+  </si>
+  <si>
+    <t>chaeyun7206@gmail.com</t>
+  </si>
+  <si>
+    <t>배채윤</t>
+  </si>
+  <si>
+    <t>jsk8070@naver.com</t>
+  </si>
+  <si>
+    <t>김세아</t>
+  </si>
+  <si>
+    <t>seoj07070@gmail.com</t>
+  </si>
+  <si>
+    <t>DONGZECHAO</t>
+  </si>
+  <si>
+    <t>wnsaus_0522@naver.com</t>
+  </si>
+  <si>
+    <t>진희원</t>
+  </si>
+  <si>
+    <t>junesumin12@naver.com</t>
+  </si>
+  <si>
+    <t>전수민</t>
+  </si>
+  <si>
+    <t>good011218@naver.com</t>
+  </si>
+  <si>
+    <t>최승혁</t>
+  </si>
+  <si>
+    <t>kutae1228@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체 디스플레이 스쿨 / 반도체 전공 </t>
+  </si>
+  <si>
+    <t>구태환</t>
+  </si>
+  <si>
+    <t>ryan.kang04@gmail.com</t>
+  </si>
+  <si>
+    <t>강우석</t>
+  </si>
+  <si>
+    <t>seo1020102p@naver.com</t>
+  </si>
+  <si>
+    <t>박재연</t>
+  </si>
+  <si>
+    <t>sdg93712426@gmail.com</t>
+  </si>
+  <si>
+    <t>신동건</t>
+  </si>
+  <si>
+    <t>leedongbin01@naver.com</t>
+  </si>
+  <si>
+    <t>이동빈</t>
+  </si>
+  <si>
+    <t>milovany03@gmail.com</t>
+  </si>
+  <si>
+    <t>박진옥</t>
+  </si>
+  <si>
+    <t>kim061806@naver.com</t>
+  </si>
+  <si>
+    <t>김윤서</t>
+  </si>
+  <si>
+    <t>kangsamy2@gmail.com</t>
+  </si>
+  <si>
+    <t>강새미</t>
+  </si>
+  <si>
+    <t>dbwjd_1230@naver.com</t>
+  </si>
+  <si>
+    <t>김유정</t>
+  </si>
+  <si>
+    <t>zero040409@gmail.com</t>
+  </si>
+  <si>
+    <t>차하율</t>
+  </si>
+  <si>
+    <t>seojin1112@naver.com</t>
+  </si>
+  <si>
+    <t>김서진</t>
+  </si>
+  <si>
+    <t>ghkwls336@naver.com</t>
+  </si>
+  <si>
+    <t>장다온</t>
+  </si>
+  <si>
+    <t>sojeongy39@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소정</t>
   </si>
 </sst>
 </file>
@@ -2759,11 +3089,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y349"/>
+  <dimension ref="A1:Y402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C354" sqref="C354"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C404" sqref="C404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28600,6 +28930,3928 @@
         <v>60</v>
       </c>
     </row>
+    <row r="350" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="2">
+        <v>45250.704909085645</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D350" s="1">
+        <v>20235102</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K350" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L350" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M350" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N350" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O350" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P350" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q350" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R350" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S350" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T350" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U350" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V350" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W350" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y350" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="351" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="2">
+        <v>45250.843176678245</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D351" s="1">
+        <v>20193328</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L351" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M351" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N351" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O351" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P351" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q351" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R351" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S351" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T351" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U351" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V351" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W351" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X351" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="352" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="2">
+        <v>45250.848935717593</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D352" s="1">
+        <v>20192827</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L352" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M352" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N352" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O352" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P352" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q352" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R352" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S352" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T352" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U352" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V352" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W352" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X352" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="353" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="2">
+        <v>45250.876460972228</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D353" s="1">
+        <v>20193647</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L353" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M353" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N353" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O353" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P353" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q353" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R353" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S353" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T353" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U353" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V353" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W353" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X353" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="354" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="2">
+        <v>45250.878429456017</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D354" s="1">
+        <v>20212837</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L354" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M354" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N354" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O354" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P354" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q354" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R354" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S354" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T354" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U354" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V354" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W354" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y354" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="355" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="2">
+        <v>45250.93367982639</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D355" s="1">
+        <v>20231057</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L355" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M355" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N355" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O355" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P355" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q355" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R355" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S355" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T355" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U355" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V355" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W355" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y355" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="356" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="2">
+        <v>45250.94723125</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D356" s="1">
+        <v>20222616</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L356" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M356" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N356" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O356" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P356" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q356" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R356" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S356" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T356" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U356" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V356" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W356" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X356" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="357" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="2">
+        <v>45250.96604702546</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D357" s="1">
+        <v>20233644</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L357" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M357" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N357" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O357" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P357" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q357" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R357" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S357" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T357" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U357" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V357" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W357" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y357" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="358" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="2">
+        <v>45251.015041527775</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D358" s="1">
+        <v>20195270</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K358" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L358" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M358" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N358" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O358" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P358" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q358" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R358" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S358" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T358" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U358" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V358" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W358" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y358" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="359" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="2">
+        <v>45251.027183958329</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D359" s="1">
+        <v>20193531</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L359" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M359" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N359" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O359" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P359" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q359" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R359" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S359" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T359" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U359" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V359" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W359" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y359" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="360" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="2">
+        <v>45251.433578194439</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D360" s="1">
+        <v>20236261</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L360" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M360" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N360" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O360" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P360" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q360" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R360" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S360" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T360" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U360" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V360" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W360" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X360" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="361" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="2">
+        <v>45251.444142314816</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D361" s="1">
+        <v>20222122</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L361" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M361" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N361" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O361" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P361" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q361" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R361" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S361" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T361" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U361" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V361" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W361" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X361" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="362" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="2">
+        <v>45251.453646331021</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D362" s="1">
+        <v>20233638</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L362" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M362" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N362" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O362" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P362" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q362" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R362" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S362" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T362" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U362" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V362" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W362" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y362" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="363" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="2">
+        <v>45251.543063912039</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D363" s="1">
+        <v>20232817</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L363" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M363" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N363" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O363" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P363" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q363" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R363" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S363" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T363" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U363" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V363" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W363" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y363" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="364" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="2">
+        <v>45251.564131435181</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D364" s="1">
+        <v>20231235</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L364" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M364" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N364" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O364" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P364" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q364" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R364" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S364" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T364" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U364" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V364" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W364" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X364" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="365" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="2">
+        <v>45251.609728009258</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D365" s="1">
+        <v>20236290</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I365" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J365" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L365" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M365" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N365" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O365" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P365" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q365" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R365" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S365" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T365" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U365" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V365" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W365" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y365" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="366" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="2">
+        <v>45251.642446365746</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D366" s="1">
+        <v>20233966</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I366" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J366" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K366" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M366" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N366" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O366" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P366" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q366" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R366" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S366" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T366" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U366" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V366" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W366" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y366" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="367" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="2">
+        <v>45251.645104467592</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D367" s="1">
+        <v>20236776</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I367" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L367" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M367" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N367" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O367" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P367" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q367" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R367" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S367" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T367" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U367" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V367" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W367" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y367" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="368" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="2">
+        <v>45251.655955104172</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D368" s="1">
+        <v>20207091</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J368" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L368" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M368" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N368" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O368" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P368" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q368" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R368" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S368" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T368" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U368" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V368" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W368" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y368" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="369" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="2">
+        <v>45251.664674629632</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D369" s="1">
+        <v>20236244</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I369" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J369" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K369" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L369" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M369" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N369" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O369" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P369" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q369" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R369" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S369" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T369" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U369" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V369" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W369" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y369" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="370" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="2">
+        <v>45251.80734392361</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D370" s="1">
+        <v>20226423</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I370" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J370" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K370" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L370" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M370" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N370" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O370" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P370" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q370" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R370" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S370" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T370" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U370" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V370" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W370" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y370" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="371" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="2">
+        <v>45251.861973425926</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D371" s="1">
+        <v>20235215</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J371" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K371" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L371" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M371" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N371" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O371" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P371" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q371" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R371" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S371" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T371" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U371" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V371" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W371" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X371" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="372" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="2">
+        <v>45251.912007175924</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D372" s="1">
+        <v>20217134</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I372" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J372" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K372" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L372" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M372" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N372" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O372" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P372" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q372" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R372" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S372" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T372" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U372" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V372" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W372" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X372" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="373" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="2">
+        <v>45251.932526018514</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D373" s="1">
+        <v>20212708</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I373" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J373" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K373" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L373" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M373" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N373" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O373" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P373" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q373" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R373" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S373" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T373" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U373" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V373" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W373" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X373" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="374" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="2">
+        <v>45251.933437916668</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D374" s="1">
+        <v>20202321</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I374" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J374" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K374" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L374" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M374" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N374" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O374" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P374" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q374" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R374" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S374" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T374" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U374" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V374" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W374" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y374" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="375" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="2">
+        <v>45251.938193946757</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D375" s="1">
+        <v>20232586</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J375" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K375" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L375" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M375" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N375" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O375" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P375" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q375" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R375" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S375" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T375" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U375" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V375" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W375" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X375" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="376" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="2">
+        <v>45251.962228356482</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D376" s="1">
+        <v>20233608</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K376" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L376" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M376" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N376" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O376" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P376" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q376" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R376" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S376" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T376" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U376" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V376" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W376" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X376" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="377" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="2">
+        <v>45251.978102800931</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D377" s="1">
+        <v>20232629</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J377" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K377" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L377" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M377" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N377" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O377" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P377" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q377" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R377" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S377" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T377" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U377" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V377" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W377" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y377" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="378" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="2">
+        <v>45252.045546805559</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D378" s="1">
+        <v>20235188</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J378" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K378" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L378" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M378" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N378" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O378" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P378" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q378" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R378" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S378" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T378" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U378" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V378" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W378" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X378" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="379" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="2">
+        <v>45252.40422866898</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D379" s="1">
+        <v>20201606</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I379" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J379" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K379" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L379" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M379" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N379" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O379" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P379" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q379" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R379" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S379" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T379" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U379" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V379" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W379" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X379" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="380" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="2">
+        <v>45252.423979363426</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D380" s="1">
+        <v>20185300</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K380" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L380" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M380" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N380" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O380" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P380" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q380" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R380" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S380" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T380" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U380" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V380" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W380" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X380" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="381" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="2">
+        <v>45252.45132868056</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D381" s="1">
+        <v>20202972</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K381" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L381" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M381" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N381" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O381" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P381" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q381" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R381" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S381" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T381" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U381" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V381" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W381" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y381" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="382" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="2">
+        <v>45252.458842245367</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D382" s="1">
+        <v>20236224</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K382" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L382" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M382" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N382" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O382" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P382" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q382" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R382" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S382" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T382" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U382" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V382" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W382" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X382" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="383" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="2">
+        <v>45252.459236435185</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D383" s="1">
+        <v>20226712</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J383" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K383" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L383" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M383" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N383" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O383" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P383" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q383" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R383" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S383" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T383" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U383" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V383" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W383" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y383" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="384" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="2">
+        <v>45252.462382951388</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D384" s="1">
+        <v>20233932</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J384" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K384" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L384" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M384" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N384" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O384" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P384" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q384" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R384" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S384" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T384" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U384" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V384" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W384" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X384" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="385" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="2">
+        <v>45252.495171643517</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D385" s="1">
+        <v>20207064</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J385" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K385" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L385" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M385" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N385" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O385" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P385" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q385" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R385" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S385" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T385" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U385" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V385" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W385" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X385" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="386" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="2">
+        <v>45252.579599675926</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D386" s="1">
+        <v>20218001</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J386" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K386" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L386" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M386" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N386" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O386" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P386" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q386" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R386" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S386" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T386" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U386" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V386" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W386" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y386" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="387" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="2">
+        <v>45252.653808541669</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D387" s="1">
+        <v>20231093</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J387" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K387" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L387" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M387" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N387" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O387" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P387" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q387" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R387" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S387" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T387" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U387" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V387" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W387" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y387" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="388" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="2">
+        <v>45252.656862627315</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D388" s="1">
+        <v>20236289</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K388" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L388" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M388" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N388" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O388" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P388" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q388" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R388" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S388" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T388" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U388" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V388" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W388" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y388" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="389" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="2">
+        <v>45252.6792584375</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D389" s="1">
+        <v>20205261</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K389" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L389" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M389" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N389" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O389" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P389" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q389" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R389" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S389" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T389" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U389" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V389" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W389" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y389" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="390" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="2">
+        <v>45252.679958611116</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D390" s="1">
+        <v>20183301</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I390" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K390" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L390" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M390" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N390" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O390" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P390" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q390" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R390" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S390" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T390" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U390" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V390" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W390" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X390" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="391" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="2">
+        <v>45252.730985289352</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D391" s="1">
+        <v>20235105</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K391" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L391" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M391" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N391" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O391" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P391" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q391" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R391" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S391" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T391" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U391" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V391" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W391" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X391" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="392" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="2">
+        <v>45252.750076770833</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D392" s="1">
+        <v>20232537</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K392" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L392" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M392" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N392" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O392" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P392" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q392" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R392" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S392" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T392" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U392" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V392" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W392" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X392" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="393" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="2">
+        <v>45252.771580127315</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D393" s="1">
+        <v>20233322</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K393" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L393" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M393" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N393" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O393" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P393" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q393" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R393" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S393" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T393" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U393" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V393" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W393" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X393" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="394" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="2">
+        <v>45252.774999143519</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D394" s="1">
+        <v>20231224</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K394" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L394" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M394" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N394" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O394" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P394" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q394" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R394" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S394" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T394" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U394" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V394" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W394" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y394" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="395" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="2">
+        <v>45252.816070046298</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D395" s="1">
+        <v>20202223</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K395" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L395" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M395" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N395" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O395" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P395" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q395" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R395" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S395" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T395" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U395" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V395" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W395" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y395" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="396" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="2">
+        <v>45252.863689826394</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D396" s="1">
+        <v>20236227</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J396" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K396" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L396" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M396" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N396" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O396" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P396" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q396" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R396" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S396" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T396" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U396" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V396" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W396" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y396" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="397" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="2">
+        <v>45252.950208645838</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D397" s="1">
+        <v>20232302</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J397" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K397" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L397" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M397" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N397" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O397" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P397" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q397" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R397" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S397" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T397" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U397" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V397" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W397" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X397" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="398" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="2">
+        <v>45252.963200844912</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D398" s="1">
+        <v>20232712</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J398" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K398" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L398" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M398" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N398" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O398" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P398" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q398" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R398" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S398" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T398" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U398" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V398" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W398" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X398" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="399" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="2">
+        <v>45252.96800543982</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D399" s="1">
+        <v>20233050</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J399" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K399" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L399" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M399" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N399" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O399" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P399" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q399" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R399" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S399" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T399" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U399" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V399" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W399" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y399" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="400" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="2">
+        <v>45253.021349722221</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D400" s="1">
+        <v>20233806</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K400" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L400" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M400" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N400" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O400" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P400" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q400" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R400" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S400" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T400" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U400" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V400" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W400" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X400" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="401" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="2">
+        <v>45253.03100930556</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D401" s="1">
+        <v>20236287</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K401" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L401" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M401" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N401" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O401" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P401" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q401" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R401" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S401" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T401" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U401" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V401" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W401" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y401" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="402" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="2">
+        <v>45253.040413148148</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D402" s="1">
+        <v>20222987</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J402" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K402" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L402" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M402" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N402" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O402" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P402" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q402" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R402" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S402" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T402" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U402" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V402" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W402" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y402" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y338">
     <sortCondition ref="A1:A338"/>

--- a/R/data/quiz231113.xlsx
+++ b/R/data/quiz231113.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4047B3-3073-D546-B451-E02A3F027C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26FBC94-527B-9946-BAFA-222C24FF2D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50440" yWindow="1640" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8847" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9155" uniqueCount="961">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2816,6 +2816,93 @@
   </si>
   <si>
     <t>윤소정</t>
+  </si>
+  <si>
+    <t>rladyddus789@gmail.com</t>
+  </si>
+  <si>
+    <t>김용연</t>
+  </si>
+  <si>
+    <t>kimcciman1@gmail.com</t>
+  </si>
+  <si>
+    <t>김원빈</t>
+  </si>
+  <si>
+    <t>dlgpals27@naver.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>won993456@naver.com</t>
+  </si>
+  <si>
+    <t>정경원</t>
+  </si>
+  <si>
+    <t>junchan1223@naver.com</t>
+  </si>
+  <si>
+    <t>최찬현</t>
+  </si>
+  <si>
+    <t>ans1929@gmail.com</t>
+  </si>
+  <si>
+    <t>조유진</t>
+  </si>
+  <si>
+    <t>tlaaldhktlaa@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t>박심미</t>
+  </si>
+  <si>
+    <t>rkdtmdrn1018@naver.com</t>
+  </si>
+  <si>
+    <t>강승구</t>
+  </si>
+  <si>
+    <t>rudqh0501@gmail.com</t>
+  </si>
+  <si>
+    <t>이경보</t>
+  </si>
+  <si>
+    <t>audwlswlghd7@naver.com</t>
+  </si>
+  <si>
+    <t>신명진</t>
+  </si>
+  <si>
+    <t>a01093819049@gmail.com</t>
+  </si>
+  <si>
+    <t>김서영</t>
+  </si>
+  <si>
+    <t>was193567@gmail.com</t>
+  </si>
+  <si>
+    <t>권유진</t>
+  </si>
+  <si>
+    <t>20233814@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김정현</t>
+  </si>
+  <si>
+    <t>bsb012345@naver.com</t>
+  </si>
+  <si>
+    <t>박준혁</t>
   </si>
 </sst>
 </file>
@@ -3089,11 +3176,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y402"/>
+  <dimension ref="A1:Y416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C404" sqref="C404"/>
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D418" sqref="D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32852,6 +32939,1042 @@
         <v>60</v>
       </c>
     </row>
+    <row r="403" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="2">
+        <v>45253.280823171299</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D403" s="1">
+        <v>20191508</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J403" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K403" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L403" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M403" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N403" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O403" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P403" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q403" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R403" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S403" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T403" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U403" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V403" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W403" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X403" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="404" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="2">
+        <v>45253.510596840279</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D404" s="1">
+        <v>20236715</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K404" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L404" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M404" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N404" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O404" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P404" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q404" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R404" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S404" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T404" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U404" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V404" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W404" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X404" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="405" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="2">
+        <v>45253.521359409722</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D405" s="1">
+        <v>20236767</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K405" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L405" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M405" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N405" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O405" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P405" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q405" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R405" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S405" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T405" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U405" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V405" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W405" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y405" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="406" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="2">
+        <v>45253.558683634255</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D406" s="1">
+        <v>20181095</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K406" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L406" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M406" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N406" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O406" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P406" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q406" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R406" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S406" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T406" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U406" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V406" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W406" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y406" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="407" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="2">
+        <v>45253.623405219907</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D407" s="1">
+        <v>20236300</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K407" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M407" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N407" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O407" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P407" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q407" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R407" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S407" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T407" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U407" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V407" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W407" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y407" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="408" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="2">
+        <v>45253.63154396991</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D408" s="1">
+        <v>20202750</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K408" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L408" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M408" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N408" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O408" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P408" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q408" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R408" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S408" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T408" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U408" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V408" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W408" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X408" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="409" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="2">
+        <v>45253.654148553236</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D409" s="1">
+        <v>20217069</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K409" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L409" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N409" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O409" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P409" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q409" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R409" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S409" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T409" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U409" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V409" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W409" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y409" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="410" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="2">
+        <v>45253.729241354165</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D410" s="1">
+        <v>20232902</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K410" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L410" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M410" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N410" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O410" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P410" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q410" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R410" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S410" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T410" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U410" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V410" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W410" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X410" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="411" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="2">
+        <v>45253.779984884255</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D411" s="1">
+        <v>20233417</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K411" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L411" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N411" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O411" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P411" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q411" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R411" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S411" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T411" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U411" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V411" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W411" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X411" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="412" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="2">
+        <v>45253.876649317128</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D412" s="1">
+        <v>20192902</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K412" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M412" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N412" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O412" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P412" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q412" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R412" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S412" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T412" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U412" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V412" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W412" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X412" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="413" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="2">
+        <v>45253.881476249997</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D413" s="1">
+        <v>20212608</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K413" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L413" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M413" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N413" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O413" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P413" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q413" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R413" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S413" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T413" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U413" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V413" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W413" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y413" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="414" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="2">
+        <v>45253.889336747685</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D414" s="1">
+        <v>20233303</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K414" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L414" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M414" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N414" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O414" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P414" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q414" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R414" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S414" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T414" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U414" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V414" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W414" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y414" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="415" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="2">
+        <v>45253.897315092589</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D415" s="1">
+        <v>20233814</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K415" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L415" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M415" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N415" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O415" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P415" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q415" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R415" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S415" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T415" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U415" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V415" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W415" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y415" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="416" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="2">
+        <v>45253.900571666665</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D416" s="1">
+        <v>20183515</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K416" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L416" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M416" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N416" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O416" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P416" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q416" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R416" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S416" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T416" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U416" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V416" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W416" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X416" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y338">
     <sortCondition ref="A1:A338"/>

--- a/R/data/quiz231113.xlsx
+++ b/R/data/quiz231113.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26FBC94-527B-9946-BAFA-222C24FF2D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B85254E-6775-EC49-B581-065D1A5991E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9155" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9397" uniqueCount="982">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2903,6 +2903,69 @@
   </si>
   <si>
     <t>박준혁</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>ind_b3@naver.com</t>
+  </si>
+  <si>
+    <t>김지안</t>
+  </si>
+  <si>
+    <t>vivace3990@gmail.com</t>
+  </si>
+  <si>
+    <t>tjdals041122@gmail.com</t>
+  </si>
+  <si>
+    <t>전성민</t>
+  </si>
+  <si>
+    <t>qkralgus121@gmail.com</t>
+  </si>
+  <si>
+    <t>박미현</t>
+  </si>
+  <si>
+    <t>wasabi0724@naver.com</t>
+  </si>
+  <si>
+    <t>홍지윤</t>
+  </si>
+  <si>
+    <t>ttlsfkdhs0321@naver.com</t>
+  </si>
+  <si>
+    <t>신라온</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>rladbqls1728@naver.com</t>
+  </si>
+  <si>
+    <t>김유빈</t>
+  </si>
+  <si>
+    <t>jjedalee@gmail.com</t>
+  </si>
+  <si>
+    <t>정재은</t>
+  </si>
+  <si>
+    <t>haohao873@naver.com</t>
+  </si>
+  <si>
+    <t>안지연</t>
   </si>
 </sst>
 </file>
@@ -3176,11 +3239,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y416"/>
+  <dimension ref="A1:Y427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D418" sqref="D418"/>
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C431" sqref="C431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33975,6 +34038,820 @@
         <v>45</v>
       </c>
     </row>
+    <row r="417" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="2">
+        <v>45253.921977210644</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D417" s="1">
+        <v>20212233</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K417" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N417" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O417" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P417" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q417" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R417" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S417" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T417" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U417" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V417" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W417" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X417" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="418" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="2">
+        <v>45253.931676782406</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D418" s="1">
+        <v>20232523</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K418" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M418" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N418" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O418" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P418" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q418" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R418" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S418" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T418" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U418" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V418" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W418" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y418" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="419" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="2">
+        <v>45253.944623750001</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D419" s="1">
+        <v>20171605</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K419" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M419" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N419" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O419" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P419" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q419" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R419" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S419" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T419" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U419" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V419" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W419" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y419" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="420" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="2">
+        <v>45253.957658518513</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D420" s="1">
+        <v>20232357</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K420" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M420" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N420" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O420" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P420" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q420" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R420" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S420" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T420" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U420" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V420" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W420" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y420" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="421" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="2">
+        <v>45253.984465960646</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D421" s="1">
+        <v>20236236</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K421" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L421" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M421" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N421" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O421" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P421" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q421" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R421" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S421" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T421" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U421" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V421" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W421" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y421" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="422" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="2">
+        <v>45254.014285104167</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D422" s="1">
+        <v>20236645</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K422" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L422" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M422" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N422" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O422" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P422" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q422" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R422" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S422" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T422" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U422" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V422" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W422" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X422" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="423" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="2">
+        <v>45254.016996643521</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D423" s="1">
+        <v>20233522</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K423" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L423" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M423" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N423" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O423" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P423" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q423" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R423" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S423" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T423" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U423" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V423" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W423" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X423" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="424" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="2">
+        <v>45254.023700902777</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D424" s="1">
+        <v>20223047</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L424" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M424" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N424" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O424" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P424" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q424" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R424" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S424" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T424" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U424" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V424" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W424" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y424" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="425" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="2">
+        <v>45254.039647303245</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D425" s="1">
+        <v>20232412</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K425" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L425" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M425" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N425" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O425" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P425" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q425" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R425" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S425" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T425" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U425" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V425" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W425" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y425" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="426" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="2">
+        <v>45254.046767430555</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D426" s="1">
+        <v>20232134</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K426" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L426" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M426" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N426" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O426" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P426" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q426" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R426" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S426" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T426" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U426" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V426" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W426" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X426" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="427" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="2">
+        <v>45254.118638344909</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D427" s="1">
+        <v>20231525</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K427" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L427" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M427" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N427" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O427" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P427" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q427" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R427" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S427" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T427" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U427" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V427" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W427" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y427" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y338">
     <sortCondition ref="A1:A338"/>

--- a/R/data/quiz231113.xlsx
+++ b/R/data/quiz231113.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202302/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B85254E-6775-EC49-B581-065D1A5991E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5913DC-63F6-C149-888E-1A11C6DE6D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9397" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9815" uniqueCount="1022">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2966,6 +2966,126 @@
   </si>
   <si>
     <t>안지연</t>
+  </si>
+  <si>
+    <t>chaeseungwoo99@gmail.com</t>
+  </si>
+  <si>
+    <t>식품영양</t>
+  </si>
+  <si>
+    <t>채승우</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>kkhe2370@naver.com</t>
+  </si>
+  <si>
+    <t>전혜린</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>gggp1224@naver.com</t>
+  </si>
+  <si>
+    <t>임재우</t>
+  </si>
+  <si>
+    <t>qndks2129@naver.com</t>
+  </si>
+  <si>
+    <t>박지혜</t>
+  </si>
+  <si>
+    <t>aktnftk3520@naver.com</t>
+  </si>
+  <si>
+    <t>어수련</t>
+  </si>
+  <si>
+    <t>dlruddk9@naver.com</t>
+  </si>
+  <si>
+    <t>이경아</t>
+  </si>
+  <si>
+    <t>rhy0787@naver.com</t>
+  </si>
+  <si>
+    <t>유희영</t>
+  </si>
+  <si>
+    <t>pearlzero@naver.com</t>
+  </si>
+  <si>
+    <t>진주영</t>
+  </si>
+  <si>
+    <t>hkmcosmos1@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스</t>
+  </si>
+  <si>
+    <t>한기민</t>
+  </si>
+  <si>
+    <t>kjh2715c@gmail.com</t>
+  </si>
+  <si>
+    <t>김정후</t>
+  </si>
+  <si>
+    <t>dndbql123@naver.com</t>
+  </si>
+  <si>
+    <t>전유비</t>
+  </si>
+  <si>
+    <t>ruye0114@naver.com</t>
+  </si>
+  <si>
+    <t>류영서</t>
+  </si>
+  <si>
+    <t>duswn8911@naver.com</t>
+  </si>
+  <si>
+    <t>김연주</t>
+  </si>
+  <si>
+    <t>hshs0104746@naver.com</t>
+  </si>
+  <si>
+    <t>최희수</t>
+  </si>
+  <si>
+    <t>dbswotjq12@naver.com</t>
+  </si>
+  <si>
+    <t>윤재섭</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>skyblue990080@gmail.com</t>
+  </si>
+  <si>
+    <t>윤나영</t>
   </si>
 </sst>
 </file>
@@ -3239,11 +3359,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y427"/>
+  <dimension ref="A1:Y446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C431" sqref="C431"/>
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34852,6 +34972,1412 @@
         <v>60</v>
       </c>
     </row>
+    <row r="428" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="2">
+        <v>45254.395107662036</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D428" s="1">
+        <v>20183845</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K428" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L428" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M428" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N428" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O428" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P428" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q428" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R428" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S428" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T428" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U428" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V428" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W428" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X428" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="429" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="2">
+        <v>45254.522161759262</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D429" s="1">
+        <v>20232114</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K429" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L429" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M429" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N429" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O429" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P429" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q429" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R429" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S429" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T429" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U429" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V429" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W429" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X429" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="430" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="2">
+        <v>45254.541424571755</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D430" s="1">
+        <v>20202638</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K430" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L430" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M430" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N430" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O430" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P430" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q430" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R430" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S430" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T430" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U430" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V430" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W430" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y430" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="431" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="2">
+        <v>45254.559803032404</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D431" s="1">
+        <v>20222561</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K431" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L431" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M431" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N431" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O431" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P431" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q431" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R431" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S431" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T431" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U431" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V431" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W431" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X431" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="432" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="2">
+        <v>45254.66260758102</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D432" s="1">
+        <v>20202742</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K432" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L432" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M432" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N432" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O432" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P432" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q432" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R432" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S432" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T432" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U432" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V432" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W432" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X432" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="433" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="2">
+        <v>45254.673317175926</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D433" s="1">
+        <v>20232617</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K433" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L433" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M433" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N433" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O433" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P433" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q433" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R433" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S433" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T433" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U433" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V433" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W433" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X433" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="434" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="2">
+        <v>45254.681479351857</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D434" s="1">
+        <v>20236628</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K434" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L434" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N434" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O434" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P434" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q434" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R434" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S434" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T434" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U434" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V434" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W434" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X434" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="435" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="2">
+        <v>45254.690220868055</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D435" s="1">
+        <v>20212342</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K435" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L435" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M435" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N435" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O435" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P435" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q435" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R435" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S435" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T435" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U435" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V435" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W435" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X435" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="436" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="2">
+        <v>45254.70385283565</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D436" s="1">
+        <v>20213827</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K436" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L436" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M436" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N436" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O436" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P436" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q436" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R436" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S436" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T436" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U436" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V436" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W436" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X436" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="437" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="2">
+        <v>45254.731742268516</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D437" s="1">
+        <v>20216289</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K437" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L437" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M437" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N437" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O437" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P437" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q437" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R437" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S437" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T437" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U437" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V437" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W437" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y437" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="438" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="2">
+        <v>45254.740338437499</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D438" s="1">
+        <v>20226429</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K438" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L438" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M438" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N438" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O438" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P438" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q438" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R438" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S438" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T438" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U438" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V438" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W438" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y438" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="439" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="2">
+        <v>45254.746890254624</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D439" s="1">
+        <v>20182517</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K439" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L439" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M439" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N439" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O439" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P439" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q439" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R439" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S439" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T439" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U439" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V439" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W439" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X439" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="440" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="2">
+        <v>45254.755870208333</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D440" s="1">
+        <v>20232574</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K440" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L440" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M440" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N440" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O440" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P440" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q440" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R440" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S440" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T440" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U440" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V440" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W440" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X440" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="441" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="2">
+        <v>45254.762940636574</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D441" s="1">
+        <v>20232214</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K441" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L441" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M441" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N441" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O441" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P441" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q441" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R441" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S441" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T441" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U441" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V441" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W441" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y441" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="442" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="2">
+        <v>45254.763454004627</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D442" s="1">
+        <v>20217081</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K442" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L442" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M442" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N442" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O442" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P442" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q442" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R442" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S442" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T442" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U442" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V442" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W442" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X442" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="443" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="2">
+        <v>45254.7694084838</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D443" s="1">
+        <v>20232639</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K443" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L443" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M443" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N443" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O443" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P443" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q443" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R443" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S443" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T443" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U443" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V443" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W443" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X443" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="444" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="2">
+        <v>45254.777121469902</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D444" s="1">
+        <v>20233233</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K444" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L444" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M444" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N444" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O444" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P444" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q444" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R444" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S444" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T444" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U444" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V444" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W444" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y444" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="445" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="2">
+        <v>45254.791313611116</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D445" s="1">
+        <v>20226647</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K445" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L445" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M445" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N445" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O445" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P445" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q445" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R445" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S445" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T445" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U445" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V445" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W445" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X445" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="446" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="2">
+        <v>45254.832948888885</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D446" s="1">
+        <v>20233828</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K446" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L446" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M446" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N446" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O446" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P446" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q446" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R446" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S446" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T446" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U446" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V446" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W446" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X446" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y338">
     <sortCondition ref="A1:A338"/>
